--- a/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8535,4 +8536,4426 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>220.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.7716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>110.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>149.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.6308</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.9519</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.0431</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.6452</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9809</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8834</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4957</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.4288</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1887</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6675</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5338</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4215</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1827</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0964</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0937</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0803</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9495</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7337</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7270</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6754</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>260103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城动力平衡混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5841</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5572</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4801</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001725</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中国高端制造股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2760</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162712</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009768</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>206003</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>96.28</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>30.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007235</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>206004</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - B</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009769</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12958,4 +12959,6672 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H175"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7858</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>213.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8049</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.6800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.7152</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>125.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.9172</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.6564</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.4314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.2763</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9661</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.9233</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8451</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.8139</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>57.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.7705</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.6627</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.5548</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.1311</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8980</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8194</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5718</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5302</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4792</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4341</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2384</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1997</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1849</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1727</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0324</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>42.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8860</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8699</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8312</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>45.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>46.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7701</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7606</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7517</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7036</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6604</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6470</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5449</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5265</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5159</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5145</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5011</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4910</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4906</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4502</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4406</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4247</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3549</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3401</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3310</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方隆元产业主题混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2729</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2349</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003295</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方安裕混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>46.65</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006586</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方安裕混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010211</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>景顺长城顺鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>519937</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长信先锐混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>28.60</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010212</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>景顺长城顺鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>36.96</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>008918</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>长信先锐混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19627,4 +19628,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>174</v>
+      </c>
+      <c r="D2" t="n">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>116</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>94</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19636,7 +19637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19647,17 +19648,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19667,14 +19688,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>174</v>
-      </c>
-      <c r="D2" t="n">
-        <v>105.6</v>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0158</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -19683,14 +19726,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>115</v>
-      </c>
-      <c r="D3" t="n">
-        <v>72.45</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -19699,14 +19764,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>116</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.41</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>141.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.7214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -19715,13 +19802,6875 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>136.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.0417</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7547</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.1495</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>103.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1397</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7877</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.7424</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.7399</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4832</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.4381</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3524</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.3439</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2721</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.2084</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.1129</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.9536</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.7653</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.6798</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>58.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.6422</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.5416</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2675</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1493</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1342</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0967</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.0635</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0396</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>59.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0370</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9787</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9133</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8086</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7841</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>33.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7384</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7337</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7137</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7073</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6673</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6623</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001225</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中邮趋势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6526</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5930</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5773</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5720</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5655</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5608</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>19.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5446</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>55.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5014</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4963</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4888</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>50.51</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4394</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>55.96</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4185</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3910</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3899</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3859</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3783</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3595</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3535</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2951</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>73.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2729</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>68.06</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2676</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>70.95</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006223</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>交银施罗德创新成长混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010268</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>太平睿安混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>26.25</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>010269</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>太平睿安混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>181</v>
+      </c>
+      <c r="D2" t="n">
+        <v>112.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>174</v>
+      </c>
+      <c r="D3" t="n">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>116</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>94</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>40.92</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26569,7 +26570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26580,17 +26581,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -26600,14 +26621,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>181</v>
-      </c>
-      <c r="D2" t="n">
-        <v>112.27</v>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9663</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -26616,14 +26659,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>174</v>
-      </c>
-      <c r="D3" t="n">
-        <v>105.6</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6594</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -26632,14 +26697,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>115</v>
-      </c>
-      <c r="D4" t="n">
-        <v>72.45</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>149.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1949</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -26648,14 +26735,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>116</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43.41</v>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.9194</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -26664,13 +26773,7119 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>136.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5788</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2812</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2639</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.0220</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.9646</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012613</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.6773</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>42.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0372</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9730</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.9507</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9088</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8382</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7892</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7488</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6277</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5872</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>56.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5734</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4048</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3723</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3556</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3180</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2535</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2493</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>60.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2068</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1982</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.0066</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.0037</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9966</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9714</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9439</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8937</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8664</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7942</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6285</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5950</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5547</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5254</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5094</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4961</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4922</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4918</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4792</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4643</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4464</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4270</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4251</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4194</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4143</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4129</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4090</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>68.04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3805</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>59.72</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3727</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>68.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3052</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012614</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>创金合信产业智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>73.86</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011938</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>56.32</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>南方平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>76.17</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>74.86</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华富新能源股票型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011939</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>博时新能源汽车主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>96.09</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>004112</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>创金合信国企活力混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>003059</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>长信先利半年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008041</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>长信先利半年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>188</v>
+      </c>
+      <c r="D2" t="n">
+        <v>106.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>181</v>
+      </c>
+      <c r="D3" t="n">
+        <v>112.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>174</v>
+      </c>
+      <c r="D4" t="n">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>115</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>116</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>94</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>40.92</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -33768,7 +33769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33779,17 +33780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -33799,14 +33820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>188</v>
-      </c>
-      <c r="D2" t="n">
-        <v>106.99</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7688</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -33815,14 +33858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>181</v>
-      </c>
-      <c r="D3" t="n">
-        <v>112.27</v>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6315</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -33831,14 +33896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>174</v>
-      </c>
-      <c r="D4" t="n">
-        <v>105.6</v>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6754</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -33847,14 +33934,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>115</v>
-      </c>
-      <c r="D5" t="n">
-        <v>72.45</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -33863,14 +33972,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>116</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43.41</v>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9853</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -33879,13 +34010,2271 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5803</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010333</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4851</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3413</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2968</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2744</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1354</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0686</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9139</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6420</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5938</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4878</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2871</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001279</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海积极增利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2859</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2768</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2594</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010334</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014756</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1165</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014757</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012997</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015154</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>188</v>
+      </c>
+      <c r="D3" t="n">
+        <v>106.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>181</v>
+      </c>
+      <c r="D4" t="n">
+        <v>112.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>174</v>
+      </c>
+      <c r="D5" t="n">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>115</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>116</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>94</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>40.92</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
+++ b/数据整理/stocks/A股/上证主板/603806-福斯特.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>37.67</v>
+        <v>33.83</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>106.99</v>
+        <v>37.67</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D4" t="n">
-        <v>112.27</v>
+        <v>106.99</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D5" t="n">
-        <v>105.6</v>
+        <v>112.27</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="D6" t="n">
-        <v>72.45</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" t="n">
-        <v>43.41</v>
+        <v>72.45</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>116</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>94</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>40.92</v>
       </c>
     </row>
@@ -600,6 +617,2456 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012967</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发行业严选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7775</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中盘成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1859</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9705</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000409</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华环保产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>398051</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海环保新能源混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2249</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1727</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0645</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013534</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0604</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9234</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8479</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012785</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8417</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012968</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发行业严选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6342</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5549</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4433</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>60.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160624</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华消费领先混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1727</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1703</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>61.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014756</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015229</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008209</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013535</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华沃鑫混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013861</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015230</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏低碳经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006526</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012786</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014571</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015058</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013862</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012075</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015005</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012076</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008210</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方宝泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015004</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006541</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方成份精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014757</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华成长领航两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012997</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2971,7 +5438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10169,7 +12636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17101,7 +19568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23769,7 +26236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28191,7 +30658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32655,7 +35122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
